--- a/summary/fmeasure_summary.xlsx
+++ b/summary/fmeasure_summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="420" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -133,13 +133,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,7 +426,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E24"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,32 +440,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -477,14 +480,18 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
+      <c r="C4">
+        <v>0.78426839999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.78131220000000001</v>
+      </c>
       <c r="E4" s="3">
         <v>0.92900000000000005</v>
       </c>
@@ -493,12 +500,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="C5">
+        <v>0.78369962999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.77326010000000001</v>
+      </c>
       <c r="E5" s="3">
         <v>0.89800000000000002</v>
       </c>
@@ -507,12 +518,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6"/>
-      <c r="D6"/>
+      <c r="C6">
+        <v>0.78700124999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.80032175999999999</v>
+      </c>
       <c r="E6" s="3">
         <v>0.90100000000000002</v>
       </c>
@@ -521,12 +536,16 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7"/>
-      <c r="D7"/>
+      <c r="C7">
+        <v>0.75919705999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.77273583000000001</v>
+      </c>
       <c r="E7" s="3">
         <v>0.91300000000000003</v>
       </c>
@@ -535,12 +554,16 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8"/>
-      <c r="D8"/>
+      <c r="C8">
+        <v>0.78601109999999996</v>
+      </c>
+      <c r="D8">
+        <v>0.79170214999999999</v>
+      </c>
       <c r="E8" s="3">
         <v>0.90600000000000003</v>
       </c>
@@ -549,12 +572,16 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9"/>
-      <c r="D9"/>
+      <c r="C9">
+        <v>0.7858619</v>
+      </c>
+      <c r="D9">
+        <v>0.76981776999999996</v>
+      </c>
       <c r="E9" s="3">
         <v>0.91800000000000004</v>
       </c>
@@ -563,12 +590,16 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10"/>
-      <c r="D10"/>
+      <c r="C10">
+        <v>0.79340560000000004</v>
+      </c>
+      <c r="D10">
+        <v>0.78021689999999999</v>
+      </c>
       <c r="E10" s="3">
         <v>0.92</v>
       </c>
@@ -577,12 +608,16 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11"/>
-      <c r="D11"/>
+      <c r="C11">
+        <v>0.77398299999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.72584349999999997</v>
+      </c>
       <c r="E11" s="3">
         <v>0.93899999999999995</v>
       </c>
@@ -591,12 +626,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12"/>
-      <c r="D12"/>
+      <c r="C12">
+        <v>0.81364460000000005</v>
+      </c>
+      <c r="D12">
+        <v>0.79706949999999999</v>
+      </c>
       <c r="E12" s="3">
         <v>0.93100000000000005</v>
       </c>
@@ -605,12 +644,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13"/>
-      <c r="D13"/>
+      <c r="C13">
+        <v>0.78295890000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.80299633999999998</v>
+      </c>
       <c r="E13" s="3">
         <v>0.93200000000000005</v>
       </c>
@@ -619,12 +662,18 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:D14" si="0">AVERAGE(C4:C13)</f>
+        <v>0.78500314399999993</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77952760499999996</v>
+      </c>
       <c r="E14" s="1">
         <f>AVERAGE(E4:E13)</f>
         <v>0.91869999999999996</v>
@@ -635,13 +684,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15">
         <v>0.95599999999999996</v>
@@ -651,11 +700,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16">
         <v>0.94499999999999995</v>
@@ -665,11 +714,11 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="2">
         <v>3</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17">
         <v>0.95099999999999996</v>
@@ -679,11 +728,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="2">
         <v>4</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18">
         <v>0.94599999999999995</v>
@@ -693,11 +742,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="2">
         <v>5</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19">
         <v>0.94499999999999995</v>
@@ -707,11 +756,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="2">
         <v>6</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20">
         <v>0.94399999999999995</v>
@@ -721,11 +770,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="2">
         <v>7</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21">
         <v>0.93400000000000005</v>
@@ -735,11 +784,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="2">
         <v>8</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22">
         <v>0.95099999999999996</v>
@@ -749,11 +798,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="2">
         <v>9</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23">
         <v>0.94899999999999995</v>
@@ -763,11 +812,11 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="2">
         <v>10</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24">
         <v>0.95799999999999996</v>
@@ -777,7 +826,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>

--- a/summary/fmeasure_summary.xlsx
+++ b/summary/fmeasure_summary.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="F15" sqref="F15:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,16 +487,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.78426839999999998</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="D4">
-        <v>0.78131220000000001</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="E4" s="3">
-        <v>0.92900000000000005</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="F4">
-        <v>0.91800000000000004</v>
+        <v>0.90500000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -505,16 +505,16 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>0.78369962999999998</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="D5">
-        <v>0.77326010000000001</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="E5" s="3">
-        <v>0.89800000000000002</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="F5">
-        <v>0.88900000000000001</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -523,16 +523,16 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0.78700124999999999</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="D6">
-        <v>0.80032175999999999</v>
+        <v>0.8</v>
       </c>
       <c r="E6" s="3">
-        <v>0.90100000000000002</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="F6">
-        <v>0.92500000000000004</v>
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -541,16 +541,16 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>0.75919705999999998</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="D7">
-        <v>0.77273583000000001</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="E7" s="3">
-        <v>0.91300000000000003</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="F7">
-        <v>0.90300000000000002</v>
+        <v>0.89300000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -559,16 +559,16 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>0.78601109999999996</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="D8">
-        <v>0.79170214999999999</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="E8" s="3">
-        <v>0.90600000000000003</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="F8">
-        <v>0.90300000000000002</v>
+        <v>0.89100000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -577,16 +577,16 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>0.7858619</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="D9">
-        <v>0.76981776999999996</v>
+        <v>0.77</v>
       </c>
       <c r="E9" s="3">
-        <v>0.91800000000000004</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="F9">
-        <v>0.88500000000000001</v>
+        <v>0.86799999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -595,16 +595,16 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>0.79340560000000004</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="D10">
-        <v>0.78021689999999999</v>
+        <v>0.78</v>
       </c>
       <c r="E10" s="3">
-        <v>0.92</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="F10">
-        <v>0.92700000000000005</v>
+        <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -613,16 +613,16 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>0.77398299999999998</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="D11">
-        <v>0.72584349999999997</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="E11" s="3">
-        <v>0.93899999999999995</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="F11">
-        <v>0.92200000000000004</v>
+        <v>0.91100000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -631,16 +631,16 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>0.81364460000000005</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="D12">
-        <v>0.79706949999999999</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="E12" s="3">
-        <v>0.93100000000000005</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="F12">
-        <v>0.92400000000000004</v>
+        <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -649,16 +649,16 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.78295890000000001</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="D13">
-        <v>0.80299633999999998</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="E13" s="3">
-        <v>0.93200000000000005</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="F13">
-        <v>0.92400000000000004</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -668,19 +668,19 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" ref="C14:D14" si="0">AVERAGE(C4:C13)</f>
-        <v>0.78500314399999993</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>0.77952760499999996</v>
+        <v>0.77949999999999997</v>
       </c>
       <c r="E14" s="1">
         <f>AVERAGE(E4:E13)</f>
-        <v>0.91869999999999996</v>
+        <v>0.90580000000000016</v>
       </c>
       <c r="F14" s="1">
         <f>AVERAGE(F4:F13)</f>
-        <v>0.91199999999999992</v>
+        <v>0.89970000000000017</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -721,10 +721,10 @@
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17">
-        <v>0.95099999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="F17">
-        <v>0.93799999999999994</v>
+        <v>0.93700000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -738,7 +738,7 @@
         <v>0.94599999999999995</v>
       </c>
       <c r="F18">
-        <v>0.94399999999999995</v>
+        <v>0.94299999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -752,7 +752,7 @@
         <v>0.94499999999999995</v>
       </c>
       <c r="F19">
-        <v>0.93600000000000005</v>
+        <v>0.93500000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -791,7 +791,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22">
-        <v>0.95099999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="F22">
         <v>0.94499999999999995</v>
@@ -819,7 +819,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24">
-        <v>0.95799999999999996</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="F24">
         <v>0.94799999999999995</v>
@@ -834,11 +834,11 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2">
         <f>AVERAGE(E15:E24)</f>
-        <v>0.94790000000000008</v>
+        <v>0.94760000000000011</v>
       </c>
       <c r="F25" s="2">
         <f>AVERAGE(F15:F24)</f>
-        <v>0.94149999999999989</v>
+        <v>0.94120000000000026</v>
       </c>
     </row>
   </sheetData>

--- a/summary/fmeasure_summary.xlsx
+++ b/summary/fmeasure_summary.xlsx
@@ -92,10 +92,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,17 +130,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -426,7 +422,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:F24"/>
+      <selection activeCell="F25" sqref="A1:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,32 +436,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -480,358 +476,404 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0.78400000000000003</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.78100000000000003</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.91500000000000004</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>0.90500000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.78400000000000003</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.77300000000000002</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>0.88700000000000001</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.877</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.78700000000000003</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0.8</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>0.88600000000000001</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.75900000000000001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.77300000000000002</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>0.89900000000000002</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>0.89300000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0.78600000000000003</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0.79200000000000004</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>0.89200000000000002</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>0.89100000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0.78600000000000003</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0.77</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>0.86799999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0.79300000000000004</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0.78</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>0.77400000000000002</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>0.72599999999999998</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>0.92600000000000005</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>0.91100000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>0.81399999999999995</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>0.79700000000000004</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>0.91800000000000004</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>0.78300000000000003</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>0.80300000000000005</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>0.91900000000000004</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>0.91</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <f t="shared" ref="C14:D14" si="0">AVERAGE(C4:C13)</f>
         <v>0.78500000000000003</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <f t="shared" si="0"/>
         <v>0.77949999999999997</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <f>AVERAGE(E4:E13)</f>
         <v>0.90580000000000016</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <f>AVERAGE(F4:F13)</f>
         <v>0.89970000000000017</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15">
+      <c r="C15" s="2">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.95599999999999996</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>0.94099999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
-      <c r="E16">
+      <c r="C16" s="2">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="E16" s="2">
         <v>0.94499999999999995</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>0.94199999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="2">
         <v>3</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
-      <c r="E17">
+      <c r="C17" s="2">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="E17" s="2">
         <v>0.95</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>0.93700000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="2">
         <v>4</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="2"/>
-      <c r="E18">
+      <c r="C18" s="2">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="E18" s="2">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>0.94299999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="2">
         <v>5</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="2"/>
-      <c r="E19">
+      <c r="C19" s="2">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E19" s="2">
         <v>0.94499999999999995</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>0.93500000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="2">
         <v>6</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="2"/>
-      <c r="E20">
+      <c r="C20" s="2">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="E20" s="2">
         <v>0.94399999999999995</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>0.93500000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="2">
         <v>7</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="2"/>
-      <c r="E21">
+      <c r="C21" s="2">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F21">
+      <c r="D21" s="2">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="F21" s="2">
         <v>0.94199999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="2">
         <v>8</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="2"/>
-      <c r="E22">
+      <c r="C22" s="2">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="E22" s="2">
         <v>0.95</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>0.94499999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="2">
         <v>9</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="2"/>
-      <c r="E23">
+      <c r="C23" s="2">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="E23" s="2">
         <v>0.94899999999999995</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>0.94399999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="2">
         <v>10</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="2"/>
-      <c r="E24">
+      <c r="C24" s="2">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E24" s="2">
         <v>0.95699999999999996</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>0.94799999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="C25" s="2">
+        <f t="shared" ref="C25:D25" si="1">AVERAGE(C15:C24)</f>
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.92699999999999994</v>
+      </c>
       <c r="E25" s="2">
         <f>AVERAGE(E15:E24)</f>
         <v>0.94760000000000011</v>
